--- a/huizong_in_browser/pre_shifu.xlsx
+++ b/huizong_in_browser/pre_shifu.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>0.9411764705882353</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>0.7483375959079281</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>0.4639386189258312</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0.5774936061381073</v>
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>0.6611253196930946</v>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>0.8296675191815853</v>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>0.6179028132992325</v>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>0.6626598465473144</v>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>0.1831202046035803</v>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>0.4498721227621483</v>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>0.5076726342710998</v>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>0.541176470588235</v>
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>0.5618925831202044</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
         <v>0.5061381074168797</v>
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>0.520460358056266</v>
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
         <v>0.4468030690537083</v>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
         <v>0.3621483375959077</v>
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>0.2271099744245523</v>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0.6278772378516624</v>
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
         <v>0.3872122762148337</v>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>0.7350383631713552</v>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0.3964194373401534</v>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>0.6130434782608694</v>
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0.4877237851662402</v>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>0.5907928388746803</v>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
         <v>0.4572890025575446</v>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F39" t="n">
         <v>0.3764705882352939</v>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>0.2800511508951407</v>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0.2138107416879793</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>0.2754475703324806</v>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>0.7069053708439897</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F44" t="n">
         <v>0.3186700767263425</v>
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>0.4636828644501277</v>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>0.4092071611253197</v>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>0.3667519181585677</v>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>0.5693094629156008</v>
@@ -4898,7 +4898,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
         <v>0.4414322250639384</v>
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
         <v>0.7381074168797952</v>
@@ -5063,6 +5063,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>